--- a/公司文件/通讯录（群）.xlsx
+++ b/公司文件/通讯录（群）.xlsx
@@ -262,10 +262,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>peixia.zhao@isriding.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>王涵清</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -279,6 +275,10 @@
   </si>
   <si>
     <t>qinlixing@isriding.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>peixia.zhao@isriding.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -480,11 +480,8 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -503,15 +500,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -528,9 +516,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,6 +535,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -856,399 +859,399 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>15851669777</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>776290609</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>18600105086</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>12260165</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>13815258366</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>3304828530</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>18662408666</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>15028363</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>15995439245</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>99654533</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>13812626572</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>170335956</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>15962250975</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>458166388</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>18068039823</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>81751996</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>13564400436</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>1002813269</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>15050235170</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>1044802761</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>13656245479</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>214755621</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1154391818</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="8">
+        <v>18061929616</v>
+      </c>
+      <c r="E16" s="7">
+        <v>109015355</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="8">
+        <v>18752400980</v>
+      </c>
+      <c r="E17" s="7">
+        <v>263377075</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="11">
+        <v>13636515663</v>
+      </c>
+      <c r="E18" s="7">
+        <v>281395336</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="11">
+        <v>15606218963</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1334274418</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1154391818</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="12">
-        <v>18061929616</v>
-      </c>
-      <c r="E16" s="11">
-        <v>109015355</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="12">
-        <v>18752400980</v>
-      </c>
-      <c r="E17" s="11">
-        <v>263377075</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
-        <v>15</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="15">
-        <v>13636515663</v>
-      </c>
-      <c r="E18" s="11">
-        <v>281395336</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
-        <v>16</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="15">
-        <v>15606218963</v>
-      </c>
-      <c r="E19" s="16">
-        <v>1334274418</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
-        <v>17</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="18">
+        <v>15150429395</v>
+      </c>
+      <c r="E20" s="16">
+        <v>852643546</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="23">
-        <v>15150429395</v>
-      </c>
-      <c r="E20" s="21">
-        <v>852643546</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="D21" s="18">
+        <v>18862144068</v>
+      </c>
+      <c r="E21" s="17">
+        <v>1079611147</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
-        <v>18</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="23">
-        <v>18862144068</v>
-      </c>
-      <c r="E21" s="22">
-        <v>1079611147</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="22" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
